--- a/REGULAR/OJT/MARCIAL, RUSTICO.xlsx
+++ b/REGULAR/OJT/MARCIAL, RUSTICO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="125">
   <si>
     <t>PERIOD</t>
   </si>
@@ -323,9 +323,6 @@
     <t>2006</t>
   </si>
   <si>
-    <t>PATERNITY</t>
-  </si>
-  <si>
     <t>9/28-10/11</t>
   </si>
   <si>
@@ -393,6 +390,33 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>SL(13-0-0)</t>
+  </si>
+  <si>
+    <t>8/29 - 9/14/2023</t>
+  </si>
+  <si>
+    <t>SL(22-0-0)</t>
+  </si>
+  <si>
+    <t>9/15 - 10/16/2023</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>PATERNITY L(10-0-0)</t>
+  </si>
+  <si>
+    <t>PL(7-0-0)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
   </si>
 </sst>
 </file>
@@ -2791,6 +2815,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K500" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K500"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3170,10 +3195,10 @@
   </sheetPr>
   <dimension ref="A2:K500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A262"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="D325" sqref="D325"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A333"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="B354" sqref="B354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3234,7 +3259,9 @@
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="50" t="s">
+        <v>124</v>
+      </c>
       <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
@@ -3330,7 +3357,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>228.41700000000003</v>
+        <v>243.41700000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3340,7 +3367,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>275.41700000000003</v>
+        <v>246.41700000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3511,7 +3538,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
-        <v>36161</v>
+        <v>36191</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="13">
@@ -3551,7 +3578,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
-        <v>36220</v>
+        <v>36193</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="13">
@@ -3571,7 +3598,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
-        <v>36251</v>
+        <v>36194</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="13">
@@ -3591,17 +3618,13 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
-        <v>36281</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>36195</v>
+      </c>
+      <c r="B22" s="20"/>
       <c r="C22" s="13">
         <v>1.25</v>
       </c>
-      <c r="D22" s="39">
-        <v>5</v>
-      </c>
+      <c r="D22" s="39"/>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
       <c r="G22" s="13">
@@ -3615,7 +3638,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
-        <v>36312</v>
+        <v>36196</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="13">
@@ -3635,7 +3658,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
-        <v>36342</v>
+        <v>36197</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="13">
@@ -3655,10 +3678,10 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
-        <v>36373</v>
+        <v>36198</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="13">
         <v>1.25</v>
@@ -3676,12 +3699,12 @@
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
       <c r="K25" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
-        <v>36404</v>
+        <v>36199</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13">
@@ -3701,7 +3724,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
-        <v>36434</v>
+        <v>36200</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13">
@@ -3721,7 +3744,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
-        <v>36465</v>
+        <v>36201</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13">
@@ -3741,7 +3764,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
-        <v>36495</v>
+        <v>36202</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13">
@@ -3761,7 +3784,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -4027,7 +4050,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -4126,12 +4149,14 @@
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
       <c r="K47" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
-      <c r="B48" s="20"/>
+      <c r="B48" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="C48" s="13"/>
       <c r="D48" s="39"/>
       <c r="E48" s="34" t="s">
@@ -4148,7 +4173,7 @@
       </c>
       <c r="J48" s="11"/>
       <c r="K48" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -4214,7 +4239,7 @@
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
       <c r="K51" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -4282,7 +4307,7 @@
         <v>37196</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C55" s="13">
         <v>1.25</v>
@@ -4300,7 +4325,7 @@
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
       <c r="K55" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4325,7 +4350,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4370,7 +4395,7 @@
         <v>37288</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C59" s="13">
         <v>1.25</v>
@@ -4382,11 +4407,13 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H59" s="39"/>
+      <c r="H59" s="39">
+        <v>4</v>
+      </c>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
       <c r="K59" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -4595,7 +4622,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4679,15 +4706,11 @@
       <c r="A74" s="40">
         <v>37712</v>
       </c>
-      <c r="B74" s="20" t="s">
-        <v>102</v>
-      </c>
+      <c r="B74" s="20"/>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
-      <c r="D74" s="39">
-        <v>5</v>
-      </c>
+      <c r="D74" s="39"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
       <c r="G74" s="13">
@@ -4843,11 +4866,15 @@
       <c r="A82" s="40">
         <v>37956</v>
       </c>
-      <c r="B82" s="20"/>
+      <c r="B82" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C82" s="13">
         <v>1.25</v>
       </c>
-      <c r="D82" s="39"/>
+      <c r="D82" s="39">
+        <v>5</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
       <c r="G82" s="13">
@@ -4861,7 +4888,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -5127,7 +5154,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5151,7 +5178,9 @@
       <c r="A97" s="40">
         <v>38353</v>
       </c>
-      <c r="B97" s="20"/>
+      <c r="B97" s="20" t="s">
+        <v>120</v>
+      </c>
       <c r="C97" s="13">
         <v>1.25</v>
       </c>
@@ -5166,14 +5195,16 @@
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
       <c r="K97" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>38384</v>
       </c>
-      <c r="B98" s="20"/>
+      <c r="B98" s="20" t="s">
+        <v>120</v>
+      </c>
       <c r="C98" s="13">
         <v>1.25</v>
       </c>
@@ -5188,7 +5219,7 @@
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
       <c r="K98" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -5254,7 +5285,7 @@
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
       <c r="K101" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -5421,7 +5452,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>38718</v>
+        <v>38748</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13">
@@ -5441,7 +5472,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>38749</v>
+        <v>38776</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13">
@@ -5461,7 +5492,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>38777</v>
+        <v>38807</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13">
@@ -5481,7 +5512,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>38808</v>
+        <v>38837</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13">
@@ -5501,7 +5532,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>38838</v>
+        <v>38868</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13">
@@ -5521,7 +5552,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>38869</v>
+        <v>38898</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13">
@@ -5541,7 +5572,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>38899</v>
+        <v>38929</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13">
@@ -5561,7 +5592,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>38930</v>
+        <v>38960</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13">
@@ -5581,10 +5612,10 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>38961</v>
+        <v>38990</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="C118" s="13">
         <v>1.25</v>
@@ -5602,44 +5633,44 @@
       <c r="I118" s="9"/>
       <c r="J118" s="11"/>
       <c r="K118" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="40">
+        <v>39021</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C119" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D119" s="39">
+        <v>5</v>
+      </c>
+      <c r="E119" s="9"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H119" s="39"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="20" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
-      <c r="B119" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C119" s="13"/>
-      <c r="D119" s="39"/>
-      <c r="E119" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F119" s="20"/>
-      <c r="G119" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H119" s="39"/>
-      <c r="I119" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J119" s="11"/>
-      <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>38991</v>
-      </c>
-      <c r="B120" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>39051</v>
+      </c>
+      <c r="B120" s="20"/>
       <c r="C120" s="13">
         <v>1.25</v>
       </c>
-      <c r="D120" s="39">
-        <v>5</v>
-      </c>
+      <c r="D120" s="39"/>
       <c r="E120" s="9"/>
       <c r="F120" s="20"/>
       <c r="G120" s="13">
@@ -5649,13 +5680,11 @@
       <c r="H120" s="39"/>
       <c r="I120" s="9"/>
       <c r="J120" s="11"/>
-      <c r="K120" s="20" t="s">
-        <v>95</v>
-      </c>
+      <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>39022</v>
+        <v>39082</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13">
@@ -5674,50 +5703,50 @@
       <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="40">
-        <v>39052</v>
+      <c r="A122" s="48" t="s">
+        <v>89</v>
       </c>
       <c r="B122" s="20"/>
-      <c r="C122" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C122" s="13"/>
       <c r="D122" s="39"/>
-      <c r="E122" s="9"/>
+      <c r="E122" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F122" s="20"/>
-      <c r="G122" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G122" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H122" s="39"/>
-      <c r="I122" s="9"/>
+      <c r="I122" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="48" t="s">
-        <v>89</v>
+      <c r="A123" s="40">
+        <v>39083</v>
       </c>
       <c r="B123" s="20"/>
-      <c r="C123" s="13"/>
+      <c r="C123" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D123" s="39"/>
-      <c r="E123" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E123" s="9"/>
       <c r="F123" s="20"/>
-      <c r="G123" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G123" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H123" s="39"/>
-      <c r="I123" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I123" s="9"/>
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13">
@@ -5737,7 +5766,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13">
@@ -5757,7 +5786,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13">
@@ -5777,7 +5806,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13">
@@ -5797,7 +5826,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13">
@@ -5817,7 +5846,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13">
@@ -5837,7 +5866,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13">
@@ -5857,7 +5886,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13">
@@ -5877,7 +5906,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13">
@@ -5897,7 +5926,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13">
@@ -5917,13 +5946,17 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>39387</v>
-      </c>
-      <c r="B134" s="20"/>
+        <v>39417</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C134" s="13">
         <v>1.25</v>
       </c>
-      <c r="D134" s="39"/>
+      <c r="D134" s="39">
+        <v>5</v>
+      </c>
       <c r="E134" s="9"/>
       <c r="F134" s="20"/>
       <c r="G134" s="13">
@@ -5936,56 +5969,54 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="40">
-        <v>39417</v>
-      </c>
-      <c r="B135" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C135" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D135" s="39">
-        <v>5</v>
-      </c>
-      <c r="E135" s="9"/>
+      <c r="A135" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F135" s="20"/>
-      <c r="G135" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H135" s="39"/>
-      <c r="I135" s="9"/>
+      <c r="I135" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="48" t="s">
-        <v>88</v>
+      <c r="A136" s="40">
+        <v>39448</v>
       </c>
       <c r="B136" s="20"/>
-      <c r="C136" s="13"/>
+      <c r="C136" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D136" s="39"/>
-      <c r="E136" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E136" s="9"/>
       <c r="F136" s="20"/>
-      <c r="G136" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G136" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H136" s="39"/>
-      <c r="I136" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I136" s="9"/>
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>39448</v>
-      </c>
-      <c r="B137" s="20"/>
+        <v>39479</v>
+      </c>
+      <c r="B137" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="C137" s="13">
         <v>1.25</v>
       </c>
@@ -5996,18 +6027,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H137" s="39"/>
+      <c r="H137" s="39">
+        <v>47</v>
+      </c>
       <c r="I137" s="9"/>
       <c r="J137" s="11"/>
-      <c r="K137" s="20"/>
+      <c r="K137" s="20" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>39479</v>
-      </c>
-      <c r="B138" s="20" t="s">
-        <v>90</v>
-      </c>
+        <v>39508</v>
+      </c>
+      <c r="B138" s="20"/>
       <c r="C138" s="13">
         <v>1.25</v>
       </c>
@@ -6018,18 +6051,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H138" s="39">
-        <v>47</v>
-      </c>
+      <c r="H138" s="39"/>
       <c r="I138" s="9"/>
       <c r="J138" s="11"/>
-      <c r="K138" s="20" t="s">
-        <v>91</v>
-      </c>
+      <c r="K138" s="20"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13">
@@ -6049,51 +6078,51 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13">
         <v>1.25</v>
       </c>
       <c r="D140" s="39"/>
-      <c r="E140" s="9"/>
+      <c r="E140" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F140" s="20"/>
       <c r="G140" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H140" s="39"/>
-      <c r="I140" s="9"/>
+      <c r="I140" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13">
         <v>1.25</v>
       </c>
       <c r="D141" s="39"/>
-      <c r="E141" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E141" s="9"/>
       <c r="F141" s="20"/>
       <c r="G141" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H141" s="39"/>
-      <c r="I141" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I141" s="9"/>
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13">
@@ -6113,7 +6142,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13">
@@ -6133,7 +6162,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13">
@@ -6153,7 +6182,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13">
@@ -6173,7 +6202,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13">
@@ -6193,13 +6222,17 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
-        <v>39753</v>
-      </c>
-      <c r="B147" s="20"/>
+        <v>39783</v>
+      </c>
+      <c r="B147" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C147" s="13">
         <v>1.25</v>
       </c>
-      <c r="D147" s="39"/>
+      <c r="D147" s="39">
+        <v>5</v>
+      </c>
       <c r="E147" s="9"/>
       <c r="F147" s="20"/>
       <c r="G147" s="13">
@@ -6212,54 +6245,50 @@
       <c r="K147" s="20"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="40">
-        <v>39783</v>
-      </c>
-      <c r="B148" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C148" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D148" s="39">
-        <v>5</v>
-      </c>
-      <c r="E148" s="9"/>
+      <c r="A148" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B148" s="20"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="39"/>
+      <c r="E148" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F148" s="20"/>
-      <c r="G148" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G148" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H148" s="39"/>
-      <c r="I148" s="9"/>
+      <c r="I148" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="48" t="s">
-        <v>87</v>
+      <c r="A149" s="40">
+        <v>39814</v>
       </c>
       <c r="B149" s="20"/>
-      <c r="C149" s="13"/>
+      <c r="C149" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D149" s="39"/>
-      <c r="E149" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E149" s="9"/>
       <c r="F149" s="20"/>
-      <c r="G149" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G149" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H149" s="39"/>
-      <c r="I149" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I149" s="9"/>
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13">
@@ -6279,7 +6308,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13">
@@ -6299,7 +6328,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13">
@@ -6319,7 +6348,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13">
@@ -6339,7 +6368,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13">
@@ -6359,7 +6388,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13">
@@ -6379,7 +6408,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13">
@@ -6399,7 +6428,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13">
@@ -6419,7 +6448,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="13">
@@ -6439,7 +6468,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13">
@@ -6459,13 +6488,17 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
-        <v>40118</v>
-      </c>
-      <c r="B160" s="20"/>
+        <v>40148</v>
+      </c>
+      <c r="B160" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C160" s="13">
         <v>1.25</v>
       </c>
-      <c r="D160" s="39"/>
+      <c r="D160" s="39">
+        <v>5</v>
+      </c>
       <c r="E160" s="9"/>
       <c r="F160" s="20"/>
       <c r="G160" s="13">
@@ -6478,54 +6511,50 @@
       <c r="K160" s="20"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="40">
-        <v>40148</v>
-      </c>
-      <c r="B161" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C161" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D161" s="39">
-        <v>5</v>
-      </c>
-      <c r="E161" s="9"/>
+      <c r="A161" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B161" s="20"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="39"/>
+      <c r="E161" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F161" s="20"/>
-      <c r="G161" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G161" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H161" s="39"/>
-      <c r="I161" s="9"/>
+      <c r="I161" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="48" t="s">
-        <v>86</v>
+      <c r="A162" s="40">
+        <v>40179</v>
       </c>
       <c r="B162" s="20"/>
-      <c r="C162" s="13"/>
+      <c r="C162" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D162" s="39"/>
-      <c r="E162" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E162" s="9"/>
       <c r="F162" s="20"/>
-      <c r="G162" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G162" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H162" s="39"/>
-      <c r="I162" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I162" s="9"/>
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B163" s="20"/>
       <c r="C163" s="13">
@@ -6545,7 +6574,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B164" s="20"/>
       <c r="C164" s="13">
@@ -6565,7 +6594,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B165" s="20"/>
       <c r="C165" s="13">
@@ -6585,7 +6614,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B166" s="20"/>
       <c r="C166" s="13">
@@ -6605,7 +6634,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B167" s="20"/>
       <c r="C167" s="13">
@@ -6625,7 +6654,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B168" s="20"/>
       <c r="C168" s="13">
@@ -6645,7 +6674,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B169" s="20"/>
       <c r="C169" s="13">
@@ -6665,7 +6694,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B170" s="20"/>
       <c r="C170" s="13">
@@ -6685,7 +6714,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B171" s="20"/>
       <c r="C171" s="13">
@@ -6705,7 +6734,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B172" s="20"/>
       <c r="C172" s="13">
@@ -6725,13 +6754,17 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
-        <v>40483</v>
-      </c>
-      <c r="B173" s="20"/>
+        <v>40513</v>
+      </c>
+      <c r="B173" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C173" s="13">
         <v>1.25</v>
       </c>
-      <c r="D173" s="39"/>
+      <c r="D173" s="39">
+        <v>5</v>
+      </c>
       <c r="E173" s="9"/>
       <c r="F173" s="20"/>
       <c r="G173" s="13">
@@ -6744,54 +6777,50 @@
       <c r="K173" s="20"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="40">
-        <v>40513</v>
-      </c>
-      <c r="B174" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C174" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D174" s="39">
-        <v>5</v>
-      </c>
-      <c r="E174" s="9"/>
+      <c r="A174" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B174" s="20"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="39"/>
+      <c r="E174" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F174" s="20"/>
-      <c r="G174" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G174" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H174" s="39"/>
-      <c r="I174" s="9"/>
+      <c r="I174" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="48" t="s">
-        <v>84</v>
+      <c r="A175" s="40">
+        <v>40544</v>
       </c>
       <c r="B175" s="20"/>
-      <c r="C175" s="13"/>
+      <c r="C175" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D175" s="39"/>
-      <c r="E175" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E175" s="9"/>
       <c r="F175" s="20"/>
-      <c r="G175" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G175" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H175" s="39"/>
-      <c r="I175" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I175" s="9"/>
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B176" s="20"/>
       <c r="C176" s="13">
@@ -6811,7 +6840,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B177" s="20"/>
       <c r="C177" s="13">
@@ -6831,7 +6860,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B178" s="20"/>
       <c r="C178" s="13">
@@ -6851,7 +6880,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B179" s="20"/>
       <c r="C179" s="13">
@@ -6871,7 +6900,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B180" s="20"/>
       <c r="C180" s="13">
@@ -6891,7 +6920,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B181" s="20"/>
       <c r="C181" s="13">
@@ -6911,7 +6940,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B182" s="20"/>
       <c r="C182" s="13">
@@ -6931,7 +6960,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B183" s="20"/>
       <c r="C183" s="13">
@@ -6951,7 +6980,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B184" s="20"/>
       <c r="C184" s="13">
@@ -6971,13 +7000,17 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
-        <v>40817</v>
-      </c>
-      <c r="B185" s="20"/>
+        <v>40848</v>
+      </c>
+      <c r="B185" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C185" s="13">
         <v>1.25</v>
       </c>
-      <c r="D185" s="39"/>
+      <c r="D185" s="39">
+        <v>10</v>
+      </c>
       <c r="E185" s="9"/>
       <c r="F185" s="20"/>
       <c r="G185" s="13">
@@ -6987,21 +7020,19 @@
       <c r="H185" s="39"/>
       <c r="I185" s="9"/>
       <c r="J185" s="11"/>
-      <c r="K185" s="20"/>
+      <c r="K185" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
-        <v>40848</v>
-      </c>
-      <c r="B186" s="20" t="s">
-        <v>77</v>
-      </c>
+        <v>40878</v>
+      </c>
+      <c r="B186" s="20"/>
       <c r="C186" s="13">
         <v>1.25</v>
       </c>
-      <c r="D186" s="39">
-        <v>10</v>
-      </c>
+      <c r="D186" s="39"/>
       <c r="E186" s="9"/>
       <c r="F186" s="20"/>
       <c r="G186" s="13">
@@ -7011,55 +7042,53 @@
       <c r="H186" s="39"/>
       <c r="I186" s="9"/>
       <c r="J186" s="11"/>
-      <c r="K186" s="20" t="s">
-        <v>85</v>
-      </c>
+      <c r="K186" s="20"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="40">
-        <v>40878</v>
+      <c r="A187" s="48" t="s">
+        <v>80</v>
       </c>
       <c r="B187" s="20"/>
-      <c r="C187" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C187" s="13"/>
       <c r="D187" s="39"/>
-      <c r="E187" s="9"/>
+      <c r="E187" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F187" s="20"/>
-      <c r="G187" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G187" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H187" s="39"/>
-      <c r="I187" s="9"/>
+      <c r="I187" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="48" t="s">
-        <v>80</v>
+      <c r="A188" s="40">
+        <v>40909</v>
       </c>
       <c r="B188" s="20"/>
-      <c r="C188" s="13"/>
+      <c r="C188" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D188" s="39"/>
-      <c r="E188" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E188" s="9"/>
       <c r="F188" s="20"/>
-      <c r="G188" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G188" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H188" s="39"/>
-      <c r="I188" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I188" s="9"/>
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B189" s="20"/>
       <c r="C189" s="13">
@@ -7079,7 +7108,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B190" s="20"/>
       <c r="C190" s="13">
@@ -7099,13 +7128,17 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
-        <v>40969</v>
-      </c>
-      <c r="B191" s="20"/>
+        <v>41000</v>
+      </c>
+      <c r="B191" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="C191" s="13">
         <v>1.25</v>
       </c>
-      <c r="D191" s="39"/>
+      <c r="D191" s="39">
+        <v>3</v>
+      </c>
       <c r="E191" s="9"/>
       <c r="F191" s="20"/>
       <c r="G191" s="13">
@@ -7115,48 +7148,44 @@
       <c r="H191" s="39"/>
       <c r="I191" s="9"/>
       <c r="J191" s="11"/>
-      <c r="K191" s="20"/>
+      <c r="K191" s="20" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" s="40">
-        <v>41000</v>
-      </c>
+      <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C192" s="13">
-        <v>1.25</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C192" s="13"/>
       <c r="D192" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E192" s="9"/>
       <c r="F192" s="20"/>
-      <c r="G192" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G192" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H192" s="39"/>
       <c r="I192" s="9"/>
       <c r="J192" s="11"/>
-      <c r="K192" s="20" t="s">
-        <v>83</v>
-      </c>
+      <c r="K192" s="20"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="40"/>
-      <c r="B193" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C193" s="13"/>
-      <c r="D193" s="39">
-        <v>2</v>
-      </c>
+      <c r="A193" s="40">
+        <v>41030</v>
+      </c>
+      <c r="B193" s="20"/>
+      <c r="C193" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D193" s="39"/>
       <c r="E193" s="9"/>
       <c r="F193" s="20"/>
-      <c r="G193" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G193" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H193" s="39"/>
       <c r="I193" s="9"/>
@@ -7165,7 +7194,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B194" s="20"/>
       <c r="C194" s="13">
@@ -7185,7 +7214,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B195" s="20"/>
       <c r="C195" s="13">
@@ -7205,7 +7234,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B196" s="20"/>
       <c r="C196" s="13">
@@ -7225,7 +7254,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B197" s="20"/>
       <c r="C197" s="13">
@@ -7245,7 +7274,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B198" s="20"/>
       <c r="C198" s="13">
@@ -7265,7 +7294,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B199" s="20"/>
       <c r="C199" s="13">
@@ -7285,7 +7314,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B200" s="20"/>
       <c r="C200" s="13">
@@ -7304,60 +7333,62 @@
       <c r="K200" s="20"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="40">
-        <v>41244</v>
+      <c r="A201" s="48" t="s">
+        <v>76</v>
       </c>
       <c r="B201" s="20"/>
-      <c r="C201" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C201" s="13"/>
       <c r="D201" s="39"/>
-      <c r="E201" s="9"/>
+      <c r="E201" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F201" s="20"/>
-      <c r="G201" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G201" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H201" s="39"/>
-      <c r="I201" s="9"/>
+      <c r="I201" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="B202" s="20"/>
-      <c r="C202" s="13"/>
-      <c r="D202" s="39"/>
-      <c r="E202" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="A202" s="40">
+        <v>41275</v>
+      </c>
+      <c r="B202" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C202" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D202" s="39">
+        <v>5</v>
+      </c>
+      <c r="E202" s="9"/>
       <c r="F202" s="20"/>
-      <c r="G202" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G202" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H202" s="39"/>
-      <c r="I202" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I202" s="9"/>
       <c r="J202" s="11"/>
-      <c r="K202" s="20"/>
+      <c r="K202" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
-        <v>41275</v>
-      </c>
-      <c r="B203" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>41306</v>
+      </c>
+      <c r="B203" s="20"/>
       <c r="C203" s="13">
         <v>1.25</v>
       </c>
-      <c r="D203" s="39">
-        <v>5</v>
-      </c>
+      <c r="D203" s="39"/>
       <c r="E203" s="9"/>
       <c r="F203" s="20"/>
       <c r="G203" s="13">
@@ -7367,13 +7398,11 @@
       <c r="H203" s="39"/>
       <c r="I203" s="9"/>
       <c r="J203" s="11"/>
-      <c r="K203" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="K203" s="20"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B204" s="20"/>
       <c r="C204" s="13">
@@ -7393,13 +7422,17 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
-        <v>41334</v>
-      </c>
-      <c r="B205" s="20"/>
+        <v>41365</v>
+      </c>
+      <c r="B205" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C205" s="13">
         <v>1.25</v>
       </c>
-      <c r="D205" s="39"/>
+      <c r="D205" s="39">
+        <v>10</v>
+      </c>
       <c r="E205" s="9"/>
       <c r="F205" s="20"/>
       <c r="G205" s="13">
@@ -7409,21 +7442,19 @@
       <c r="H205" s="39"/>
       <c r="I205" s="9"/>
       <c r="J205" s="11"/>
-      <c r="K205" s="20"/>
+      <c r="K205" s="20" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
-        <v>41365</v>
-      </c>
-      <c r="B206" s="20" t="s">
-        <v>77</v>
-      </c>
+        <v>41395</v>
+      </c>
+      <c r="B206" s="20"/>
       <c r="C206" s="13">
         <v>1.25</v>
       </c>
-      <c r="D206" s="39">
-        <v>10</v>
-      </c>
+      <c r="D206" s="39"/>
       <c r="E206" s="9"/>
       <c r="F206" s="20"/>
       <c r="G206" s="13">
@@ -7433,13 +7464,11 @@
       <c r="H206" s="39"/>
       <c r="I206" s="9"/>
       <c r="J206" s="11"/>
-      <c r="K206" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="K206" s="20"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B207" s="20"/>
       <c r="C207" s="13">
@@ -7459,7 +7488,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B208" s="20"/>
       <c r="C208" s="13">
@@ -7479,7 +7508,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B209" s="20"/>
       <c r="C209" s="13">
@@ -7499,7 +7528,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B210" s="20"/>
       <c r="C210" s="13">
@@ -7519,7 +7548,7 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B211" s="20"/>
       <c r="C211" s="13">
@@ -7539,7 +7568,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B212" s="20"/>
       <c r="C212" s="13">
@@ -7559,7 +7588,7 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B213" s="20"/>
       <c r="C213" s="13">
@@ -7578,50 +7607,50 @@
       <c r="K213" s="20"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="40">
-        <v>41609</v>
+      <c r="A214" s="48" t="s">
+        <v>73</v>
       </c>
       <c r="B214" s="20"/>
-      <c r="C214" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C214" s="13"/>
       <c r="D214" s="39"/>
-      <c r="E214" s="9"/>
+      <c r="E214" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F214" s="20"/>
-      <c r="G214" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G214" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H214" s="39"/>
-      <c r="I214" s="9"/>
+      <c r="I214" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="48" t="s">
-        <v>73</v>
+      <c r="A215" s="40">
+        <v>41640</v>
       </c>
       <c r="B215" s="20"/>
-      <c r="C215" s="13"/>
+      <c r="C215" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D215" s="39"/>
-      <c r="E215" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E215" s="9"/>
       <c r="F215" s="20"/>
-      <c r="G215" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G215" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H215" s="39"/>
-      <c r="I215" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I215" s="9"/>
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B216" s="20"/>
       <c r="C216" s="13">
@@ -7641,7 +7670,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B217" s="20"/>
       <c r="C217" s="13">
@@ -7661,7 +7690,7 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B218" s="20"/>
       <c r="C218" s="13">
@@ -7681,7 +7710,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B219" s="20"/>
       <c r="C219" s="13">
@@ -7701,7 +7730,7 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B220" s="20"/>
       <c r="C220" s="13">
@@ -7721,7 +7750,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B221" s="20"/>
       <c r="C221" s="13">
@@ -7741,13 +7770,17 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
-        <v>41821</v>
-      </c>
-      <c r="B222" s="20"/>
+        <v>41852</v>
+      </c>
+      <c r="B222" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="C222" s="13">
         <v>1.25</v>
       </c>
-      <c r="D222" s="39"/>
+      <c r="D222" s="39">
+        <v>11</v>
+      </c>
       <c r="E222" s="9"/>
       <c r="F222" s="20"/>
       <c r="G222" s="13">
@@ -7757,21 +7790,19 @@
       <c r="H222" s="39"/>
       <c r="I222" s="9"/>
       <c r="J222" s="11"/>
-      <c r="K222" s="20"/>
+      <c r="K222" s="20" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
-        <v>41852</v>
-      </c>
-      <c r="B223" s="20" t="s">
-        <v>74</v>
-      </c>
+        <v>41883</v>
+      </c>
+      <c r="B223" s="20"/>
       <c r="C223" s="13">
         <v>1.25</v>
       </c>
-      <c r="D223" s="39">
-        <v>11</v>
-      </c>
+      <c r="D223" s="39"/>
       <c r="E223" s="9"/>
       <c r="F223" s="20"/>
       <c r="G223" s="13">
@@ -7781,13 +7812,11 @@
       <c r="H223" s="39"/>
       <c r="I223" s="9"/>
       <c r="J223" s="11"/>
-      <c r="K223" s="20" t="s">
-        <v>75</v>
-      </c>
+      <c r="K223" s="20"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B224" s="20"/>
       <c r="C224" s="13">
@@ -7807,7 +7836,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B225" s="20"/>
       <c r="C225" s="13">
@@ -7827,7 +7856,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B226" s="20"/>
       <c r="C226" s="13">
@@ -7846,50 +7875,50 @@
       <c r="K226" s="20"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" s="40">
-        <v>41974</v>
+      <c r="A227" s="48" t="s">
+        <v>68</v>
       </c>
       <c r="B227" s="20"/>
-      <c r="C227" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C227" s="13"/>
       <c r="D227" s="39"/>
-      <c r="E227" s="9"/>
+      <c r="E227" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F227" s="20"/>
-      <c r="G227" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G227" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H227" s="39"/>
-      <c r="I227" s="9"/>
+      <c r="I227" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" s="48" t="s">
-        <v>68</v>
+      <c r="A228" s="40">
+        <v>42005</v>
       </c>
       <c r="B228" s="20"/>
-      <c r="C228" s="13"/>
+      <c r="C228" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D228" s="39"/>
-      <c r="E228" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E228" s="9"/>
       <c r="F228" s="20"/>
-      <c r="G228" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G228" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H228" s="39"/>
-      <c r="I228" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I228" s="9"/>
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B229" s="20"/>
       <c r="C229" s="13">
@@ -7909,7 +7938,7 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B230" s="20"/>
       <c r="C230" s="13">
@@ -7929,7 +7958,7 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B231" s="20"/>
       <c r="C231" s="13">
@@ -7949,7 +7978,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B232" s="20"/>
       <c r="C232" s="13">
@@ -7969,7 +7998,7 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B233" s="20"/>
       <c r="C233" s="13">
@@ -7989,9 +8018,11 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
-        <v>42156</v>
-      </c>
-      <c r="B234" s="20"/>
+        <v>42186</v>
+      </c>
+      <c r="B234" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C234" s="13">
         <v>1.25</v>
       </c>
@@ -8002,18 +8033,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H234" s="39"/>
+      <c r="H234" s="39">
+        <v>5</v>
+      </c>
       <c r="I234" s="9"/>
       <c r="J234" s="11"/>
-      <c r="K234" s="20"/>
+      <c r="K234" s="20" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
-        <v>42186</v>
-      </c>
-      <c r="B235" s="20" t="s">
-        <v>69</v>
-      </c>
+        <v>42217</v>
+      </c>
+      <c r="B235" s="20"/>
       <c r="C235" s="13">
         <v>1.25</v>
       </c>
@@ -8024,18 +8057,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H235" s="39">
-        <v>5</v>
-      </c>
+      <c r="H235" s="39"/>
       <c r="I235" s="9"/>
       <c r="J235" s="11"/>
-      <c r="K235" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="K235" s="20"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B236" s="20"/>
       <c r="C236" s="13">
@@ -8055,7 +8084,7 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B237" s="20"/>
       <c r="C237" s="13">
@@ -8075,9 +8104,11 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
-        <v>42278</v>
-      </c>
-      <c r="B238" s="20"/>
+        <v>42309</v>
+      </c>
+      <c r="B238" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C238" s="13">
         <v>1.25</v>
       </c>
@@ -8088,86 +8119,84 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H238" s="39"/>
+      <c r="H238" s="39">
+        <v>14</v>
+      </c>
       <c r="I238" s="9"/>
       <c r="J238" s="11"/>
-      <c r="K238" s="20"/>
+      <c r="K238" s="20" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B239" s="20" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C239" s="13">
         <v>1.25</v>
       </c>
-      <c r="D239" s="39"/>
+      <c r="D239" s="39">
+        <v>5</v>
+      </c>
       <c r="E239" s="9"/>
       <c r="F239" s="20"/>
       <c r="G239" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H239" s="39">
-        <v>14</v>
-      </c>
+      <c r="H239" s="39"/>
       <c r="I239" s="9"/>
       <c r="J239" s="11"/>
-      <c r="K239" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="K239" s="20"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A240" s="40">
-        <v>42339</v>
-      </c>
-      <c r="B240" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C240" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D240" s="39">
-        <v>5</v>
-      </c>
-      <c r="E240" s="9"/>
+      <c r="A240" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B240" s="20"/>
+      <c r="C240" s="13"/>
+      <c r="D240" s="39"/>
+      <c r="E240" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F240" s="20"/>
-      <c r="G240" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G240" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H240" s="39"/>
-      <c r="I240" s="9"/>
+      <c r="I240" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A241" s="48" t="s">
-        <v>56</v>
+      <c r="A241" s="40">
+        <v>42370</v>
       </c>
       <c r="B241" s="20"/>
-      <c r="C241" s="13"/>
+      <c r="C241" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D241" s="39"/>
-      <c r="E241" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E241" s="9"/>
       <c r="F241" s="20"/>
-      <c r="G241" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G241" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H241" s="39"/>
-      <c r="I241" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I241" s="9"/>
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B242" s="20"/>
       <c r="C242" s="13">
@@ -8187,7 +8216,7 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B243" s="20"/>
       <c r="C243" s="13">
@@ -8207,7 +8236,7 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B244" s="20"/>
       <c r="C244" s="13">
@@ -8227,7 +8256,7 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B245" s="20"/>
       <c r="C245" s="13">
@@ -8247,7 +8276,7 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B246" s="20"/>
       <c r="C246" s="13">
@@ -8267,7 +8296,7 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B247" s="20"/>
       <c r="C247" s="13">
@@ -8287,7 +8316,7 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B248" s="20"/>
       <c r="C248" s="13">
@@ -8307,7 +8336,7 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B249" s="20"/>
       <c r="C249" s="13">
@@ -8327,9 +8356,11 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
-        <v>42614</v>
-      </c>
-      <c r="B250" s="20"/>
+        <v>42644</v>
+      </c>
+      <c r="B250" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C250" s="13">
         <v>1.25</v>
       </c>
@@ -8346,54 +8377,54 @@
       <c r="K250" s="20"/>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A251" s="40">
-        <v>42644</v>
-      </c>
+      <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C251" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D251" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="C251" s="13"/>
+      <c r="D251" s="39">
+        <v>15</v>
+      </c>
       <c r="E251" s="9"/>
       <c r="F251" s="20"/>
-      <c r="G251" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G251" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H251" s="39"/>
       <c r="I251" s="9"/>
       <c r="J251" s="11"/>
-      <c r="K251" s="20"/>
+      <c r="K251" s="20" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A252" s="40"/>
-      <c r="B252" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C252" s="13"/>
-      <c r="D252" s="39">
-        <v>15</v>
-      </c>
+      <c r="A252" s="40">
+        <v>42675</v>
+      </c>
+      <c r="B252" s="20"/>
+      <c r="C252" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D252" s="39"/>
       <c r="E252" s="9"/>
       <c r="F252" s="20"/>
-      <c r="G252" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G252" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H252" s="39"/>
       <c r="I252" s="9"/>
       <c r="J252" s="11"/>
-      <c r="K252" s="20" t="s">
-        <v>67</v>
-      </c>
+      <c r="K252" s="20"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
-        <v>42675</v>
-      </c>
-      <c r="B253" s="20"/>
+        <v>42705</v>
+      </c>
+      <c r="B253" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C253" s="13">
         <v>1.25</v>
       </c>
@@ -8404,62 +8435,60 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H253" s="39"/>
+      <c r="H253" s="39">
+        <v>10</v>
+      </c>
       <c r="I253" s="9"/>
       <c r="J253" s="11"/>
-      <c r="K253" s="20"/>
+      <c r="K253" s="20" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A254" s="40">
-        <v>42705</v>
-      </c>
-      <c r="B254" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C254" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A254" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B254" s="20"/>
+      <c r="C254" s="13"/>
       <c r="D254" s="39"/>
-      <c r="E254" s="9"/>
+      <c r="E254" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F254" s="20"/>
-      <c r="G254" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H254" s="39">
-        <v>10</v>
-      </c>
-      <c r="I254" s="9"/>
+      <c r="G254" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H254" s="39"/>
+      <c r="I254" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J254" s="11"/>
-      <c r="K254" s="20" t="s">
-        <v>64</v>
-      </c>
+      <c r="K254" s="20"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A255" s="48" t="s">
-        <v>55</v>
+      <c r="A255" s="40">
+        <v>42736</v>
       </c>
       <c r="B255" s="20"/>
-      <c r="C255" s="13"/>
+      <c r="C255" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D255" s="39"/>
-      <c r="E255" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E255" s="9"/>
       <c r="F255" s="20"/>
-      <c r="G255" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G255" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H255" s="39"/>
-      <c r="I255" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I255" s="9"/>
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B256" s="20"/>
       <c r="C256" s="13">
@@ -8479,7 +8508,7 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B257" s="20"/>
       <c r="C257" s="13">
@@ -8499,7 +8528,7 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B258" s="20"/>
       <c r="C258" s="13">
@@ -8519,7 +8548,7 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B259" s="20"/>
       <c r="C259" s="13">
@@ -8539,7 +8568,7 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B260" s="20"/>
       <c r="C260" s="13">
@@ -8559,9 +8588,11 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
-        <v>42887</v>
-      </c>
-      <c r="B261" s="20"/>
+        <v>42917</v>
+      </c>
+      <c r="B261" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C261" s="13">
         <v>1.25</v>
       </c>
@@ -8572,27 +8603,27 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H261" s="39"/>
+      <c r="H261" s="39">
+        <v>15</v>
+      </c>
       <c r="I261" s="9"/>
       <c r="J261" s="11"/>
-      <c r="K261" s="20"/>
+      <c r="K261" s="20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A262" s="40">
-        <v>42917</v>
-      </c>
+      <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C262" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C262" s="13"/>
       <c r="D262" s="39"/>
       <c r="E262" s="9"/>
       <c r="F262" s="20"/>
-      <c r="G262" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G262" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H262" s="39">
         <v>15</v>
@@ -8600,13 +8631,13 @@
       <c r="I262" s="9"/>
       <c r="J262" s="11"/>
       <c r="K262" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C263" s="13"/>
       <c r="D263" s="39"/>
@@ -8617,39 +8648,37 @@
         <v/>
       </c>
       <c r="H263" s="39">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I263" s="9"/>
       <c r="J263" s="11"/>
       <c r="K263" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A264" s="40"/>
-      <c r="B264" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C264" s="13"/>
+      <c r="A264" s="40">
+        <v>42948</v>
+      </c>
+      <c r="B264" s="20"/>
+      <c r="C264" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D264" s="39"/>
       <c r="E264" s="9"/>
       <c r="F264" s="20"/>
-      <c r="G264" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H264" s="39">
-        <v>30</v>
-      </c>
+      <c r="G264" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H264" s="39"/>
       <c r="I264" s="9"/>
       <c r="J264" s="11"/>
-      <c r="K264" s="20" t="s">
-        <v>63</v>
-      </c>
+      <c r="K264" s="20"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B265" s="20"/>
       <c r="C265" s="13">
@@ -8669,7 +8698,7 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B266" s="20"/>
       <c r="C266" s="13">
@@ -8689,7 +8718,7 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B267" s="20"/>
       <c r="C267" s="13">
@@ -8709,13 +8738,17 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
-        <v>43040</v>
-      </c>
-      <c r="B268" s="20"/>
+        <v>43070</v>
+      </c>
+      <c r="B268" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C268" s="13">
         <v>1.25</v>
       </c>
-      <c r="D268" s="39"/>
+      <c r="D268" s="39">
+        <v>5</v>
+      </c>
       <c r="E268" s="9"/>
       <c r="F268" s="20"/>
       <c r="G268" s="13">
@@ -8728,54 +8761,50 @@
       <c r="K268" s="20"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A269" s="40">
-        <v>43070</v>
-      </c>
-      <c r="B269" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C269" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D269" s="39">
-        <v>5</v>
-      </c>
-      <c r="E269" s="9"/>
+      <c r="A269" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B269" s="20"/>
+      <c r="C269" s="13"/>
+      <c r="D269" s="39"/>
+      <c r="E269" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F269" s="20"/>
-      <c r="G269" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G269" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H269" s="39"/>
-      <c r="I269" s="9"/>
+      <c r="I269" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A270" s="48" t="s">
-        <v>54</v>
+      <c r="A270" s="40">
+        <v>43101</v>
       </c>
       <c r="B270" s="20"/>
-      <c r="C270" s="13"/>
+      <c r="C270" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D270" s="39"/>
-      <c r="E270" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E270" s="9"/>
       <c r="F270" s="20"/>
-      <c r="G270" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G270" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H270" s="39"/>
-      <c r="I270" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I270" s="9"/>
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B271" s="20"/>
       <c r="C271" s="13">
@@ -8795,7 +8824,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B272" s="20"/>
       <c r="C272" s="13">
@@ -8815,7 +8844,7 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="13">
@@ -8835,7 +8864,7 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B274" s="20"/>
       <c r="C274" s="13">
@@ -8855,7 +8884,7 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B275" s="20"/>
       <c r="C275" s="13">
@@ -8875,7 +8904,7 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B276" s="20"/>
       <c r="C276" s="13">
@@ -8895,7 +8924,7 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B277" s="20"/>
       <c r="C277" s="13">
@@ -8915,7 +8944,7 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B278" s="20"/>
       <c r="C278" s="13">
@@ -8935,7 +8964,7 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B279" s="20"/>
       <c r="C279" s="13">
@@ -8955,7 +8984,7 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B280" s="20"/>
       <c r="C280" s="13">
@@ -8975,13 +9004,17 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
-        <v>43405</v>
-      </c>
-      <c r="B281" s="20"/>
+        <v>43435</v>
+      </c>
+      <c r="B281" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C281" s="13">
         <v>1.25</v>
       </c>
-      <c r="D281" s="39"/>
+      <c r="D281" s="39">
+        <v>5</v>
+      </c>
       <c r="E281" s="9"/>
       <c r="F281" s="20"/>
       <c r="G281" s="13">
@@ -8994,54 +9027,50 @@
       <c r="K281" s="20"/>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A282" s="40">
-        <v>43435</v>
-      </c>
-      <c r="B282" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C282" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D282" s="39">
-        <v>5</v>
-      </c>
-      <c r="E282" s="9"/>
+      <c r="A282" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B282" s="20"/>
+      <c r="C282" s="13"/>
+      <c r="D282" s="39"/>
+      <c r="E282" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F282" s="20"/>
-      <c r="G282" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G282" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H282" s="39"/>
-      <c r="I282" s="9"/>
+      <c r="I282" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A283" s="48" t="s">
-        <v>53</v>
+      <c r="A283" s="40">
+        <v>43466</v>
       </c>
       <c r="B283" s="20"/>
-      <c r="C283" s="13"/>
+      <c r="C283" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D283" s="39"/>
-      <c r="E283" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E283" s="9"/>
       <c r="F283" s="20"/>
-      <c r="G283" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G283" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H283" s="39"/>
-      <c r="I283" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I283" s="9"/>
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B284" s="20"/>
       <c r="C284" s="13">
@@ -9061,7 +9090,7 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B285" s="20"/>
       <c r="C285" s="13">
@@ -9081,7 +9110,7 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B286" s="20"/>
       <c r="C286" s="13">
@@ -9101,7 +9130,7 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B287" s="20"/>
       <c r="C287" s="13">
@@ -9121,7 +9150,7 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="13">
@@ -9141,7 +9170,7 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B289" s="20"/>
       <c r="C289" s="13">
@@ -9161,7 +9190,7 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B290" s="20"/>
       <c r="C290" s="13">
@@ -9181,7 +9210,7 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B291" s="20"/>
       <c r="C291" s="13">
@@ -9201,7 +9230,7 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B292" s="20"/>
       <c r="C292" s="13">
@@ -9221,7 +9250,7 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B293" s="20"/>
       <c r="C293" s="13">
@@ -9241,13 +9270,17 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
-        <v>43770</v>
-      </c>
-      <c r="B294" s="20"/>
+        <v>43800</v>
+      </c>
+      <c r="B294" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C294" s="13">
         <v>1.25</v>
       </c>
-      <c r="D294" s="39"/>
+      <c r="D294" s="39">
+        <v>5</v>
+      </c>
       <c r="E294" s="9"/>
       <c r="F294" s="20"/>
       <c r="G294" s="13">
@@ -9260,58 +9293,54 @@
       <c r="K294" s="20"/>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A295" s="40">
-        <v>43800</v>
-      </c>
-      <c r="B295" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C295" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D295" s="39">
-        <v>5</v>
-      </c>
-      <c r="E295" s="9"/>
+      <c r="A295" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B295" s="20"/>
+      <c r="C295" s="13"/>
+      <c r="D295" s="39"/>
+      <c r="E295" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F295" s="20"/>
-      <c r="G295" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G295" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H295" s="39"/>
-      <c r="I295" s="9"/>
+      <c r="I295" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A296" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B296" s="20"/>
-      <c r="C296" s="13"/>
+      <c r="A296" s="40">
+        <v>43831</v>
+      </c>
+      <c r="B296" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C296" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D296" s="39"/>
-      <c r="E296" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E296" s="9"/>
       <c r="F296" s="20"/>
-      <c r="G296" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G296" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H296" s="39"/>
-      <c r="I296" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I296" s="9"/>
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
-        <v>43831</v>
-      </c>
-      <c r="B297" s="20" t="s">
-        <v>52</v>
-      </c>
+        <v>43862</v>
+      </c>
+      <c r="B297" s="20"/>
       <c r="C297" s="13">
         <v>1.25</v>
       </c>
@@ -9329,7 +9358,7 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B298" s="20"/>
       <c r="C298" s="13">
@@ -9349,7 +9378,7 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="13">
@@ -9369,7 +9398,7 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B300" s="20"/>
       <c r="C300" s="13">
@@ -9389,7 +9418,7 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B301" s="20"/>
       <c r="C301" s="13">
@@ -9409,7 +9438,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B302" s="20"/>
       <c r="C302" s="13">
@@ -9429,7 +9458,7 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="13">
@@ -9449,7 +9478,7 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="13">
@@ -9469,7 +9498,7 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B305" s="20"/>
       <c r="C305" s="13">
@@ -9489,7 +9518,7 @@
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B306" s="20"/>
       <c r="C306" s="13">
@@ -9509,13 +9538,17 @@
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
-        <v>44136</v>
-      </c>
-      <c r="B307" s="20"/>
+        <v>44166</v>
+      </c>
+      <c r="B307" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C307" s="13">
         <v>1.25</v>
       </c>
-      <c r="D307" s="39"/>
+      <c r="D307" s="39">
+        <v>5</v>
+      </c>
       <c r="E307" s="9"/>
       <c r="F307" s="20"/>
       <c r="G307" s="13">
@@ -9528,23 +9561,17 @@
       <c r="K307" s="20"/>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A308" s="40">
-        <v>44166</v>
-      </c>
-      <c r="B308" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C308" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D308" s="39">
-        <v>5</v>
-      </c>
+      <c r="A308" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="B308" s="20"/>
+      <c r="C308" s="13"/>
+      <c r="D308" s="39"/>
       <c r="E308" s="9"/>
       <c r="F308" s="20"/>
-      <c r="G308" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G308" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H308" s="39"/>
       <c r="I308" s="9"/>
@@ -9552,17 +9579,19 @@
       <c r="K308" s="20"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A309" s="48" t="s">
-        <v>114</v>
+      <c r="A309" s="40">
+        <v>44227</v>
       </c>
       <c r="B309" s="20"/>
-      <c r="C309" s="13"/>
+      <c r="C309" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D309" s="39"/>
       <c r="E309" s="9"/>
       <c r="F309" s="20"/>
-      <c r="G309" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G309" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H309" s="39"/>
       <c r="I309" s="9"/>
@@ -9571,7 +9600,7 @@
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
-        <v>43831</v>
+        <v>44255</v>
       </c>
       <c r="B310" s="20"/>
       <c r="C310" s="13">
@@ -9591,7 +9620,7 @@
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
-        <v>43862</v>
+        <v>44286</v>
       </c>
       <c r="B311" s="20"/>
       <c r="C311" s="13">
@@ -9611,7 +9640,7 @@
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
-        <v>43891</v>
+        <v>44316</v>
       </c>
       <c r="B312" s="20"/>
       <c r="C312" s="13">
@@ -9631,7 +9660,7 @@
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
-        <v>43922</v>
+        <v>44347</v>
       </c>
       <c r="B313" s="20"/>
       <c r="C313" s="13">
@@ -9651,7 +9680,7 @@
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
-        <v>43952</v>
+        <v>44377</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="13">
@@ -9671,7 +9700,7 @@
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
-        <v>43983</v>
+        <v>44408</v>
       </c>
       <c r="B315" s="20"/>
       <c r="C315" s="13">
@@ -9691,7 +9720,7 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
-        <v>44013</v>
+        <v>44439</v>
       </c>
       <c r="B316" s="20"/>
       <c r="C316" s="13">
@@ -9711,7 +9740,7 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
-        <v>44044</v>
+        <v>44469</v>
       </c>
       <c r="B317" s="20"/>
       <c r="C317" s="13">
@@ -9731,7 +9760,7 @@
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
-        <v>44075</v>
+        <v>44500</v>
       </c>
       <c r="B318" s="20"/>
       <c r="C318" s="13">
@@ -9751,7 +9780,7 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
-        <v>44105</v>
+        <v>44530</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="13">
@@ -9771,13 +9800,17 @@
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
-        <v>44136</v>
-      </c>
-      <c r="B320" s="20"/>
+        <v>44561</v>
+      </c>
+      <c r="B320" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C320" s="13">
         <v>1.25</v>
       </c>
-      <c r="D320" s="39"/>
+      <c r="D320" s="39">
+        <v>5</v>
+      </c>
       <c r="E320" s="9"/>
       <c r="F320" s="20"/>
       <c r="G320" s="13">
@@ -9790,23 +9823,17 @@
       <c r="K320" s="20"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A321" s="40">
-        <v>44166</v>
-      </c>
-      <c r="B321" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C321" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D321" s="39">
-        <v>5</v>
-      </c>
+      <c r="A321" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B321" s="20"/>
+      <c r="C321" s="13"/>
+      <c r="D321" s="39"/>
       <c r="E321" s="9"/>
       <c r="F321" s="20"/>
-      <c r="G321" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G321" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H321" s="39"/>
       <c r="I321" s="9"/>
@@ -9814,17 +9841,19 @@
       <c r="K321" s="20"/>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A322" s="48" t="s">
-        <v>115</v>
+      <c r="A322" s="40">
+        <v>44592</v>
       </c>
       <c r="B322" s="20"/>
-      <c r="C322" s="13"/>
+      <c r="C322" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D322" s="39"/>
       <c r="E322" s="9"/>
       <c r="F322" s="20"/>
-      <c r="G322" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G322" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H322" s="39"/>
       <c r="I322" s="9"/>
@@ -9833,7 +9862,7 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
-        <v>43831</v>
+        <v>44620</v>
       </c>
       <c r="B323" s="20"/>
       <c r="C323" s="13">
@@ -9853,7 +9882,7 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
-        <v>43862</v>
+        <v>44651</v>
       </c>
       <c r="B324" s="20"/>
       <c r="C324" s="13">
@@ -9873,7 +9902,7 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
-        <v>43891</v>
+        <v>44681</v>
       </c>
       <c r="B325" s="20"/>
       <c r="C325" s="13">
@@ -9893,7 +9922,7 @@
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
-        <v>43922</v>
+        <v>44712</v>
       </c>
       <c r="B326" s="20"/>
       <c r="C326" s="13">
@@ -9913,7 +9942,7 @@
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
-        <v>43952</v>
+        <v>44742</v>
       </c>
       <c r="B327" s="20"/>
       <c r="C327" s="13">
@@ -9933,7 +9962,7 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
-        <v>43983</v>
+        <v>44773</v>
       </c>
       <c r="B328" s="20"/>
       <c r="C328" s="13">
@@ -9953,7 +9982,7 @@
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
-        <v>44013</v>
+        <v>44804</v>
       </c>
       <c r="B329" s="20"/>
       <c r="C329" s="13">
@@ -9973,7 +10002,7 @@
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
-        <v>44044</v>
+        <v>44834</v>
       </c>
       <c r="B330" s="20"/>
       <c r="C330" s="13">
@@ -9993,7 +10022,7 @@
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
-        <v>44075</v>
+        <v>44865</v>
       </c>
       <c r="B331" s="20"/>
       <c r="C331" s="13">
@@ -10013,7 +10042,7 @@
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
-        <v>44105</v>
+        <v>44895</v>
       </c>
       <c r="B332" s="20"/>
       <c r="C332" s="13">
@@ -10033,13 +10062,17 @@
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
-        <v>44136</v>
-      </c>
-      <c r="B333" s="20"/>
+        <v>44926</v>
+      </c>
+      <c r="B333" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C333" s="13">
         <v>1.25</v>
       </c>
-      <c r="D333" s="39"/>
+      <c r="D333" s="39">
+        <v>5</v>
+      </c>
       <c r="E333" s="9"/>
       <c r="F333" s="20"/>
       <c r="G333" s="13">
@@ -10052,23 +10085,17 @@
       <c r="K333" s="20"/>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A334" s="40">
-        <v>44166</v>
-      </c>
-      <c r="B334" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C334" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D334" s="39">
-        <v>5</v>
-      </c>
+      <c r="A334" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B334" s="20"/>
+      <c r="C334" s="13"/>
+      <c r="D334" s="39"/>
       <c r="E334" s="9"/>
       <c r="F334" s="20"/>
-      <c r="G334" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G334" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H334" s="39"/>
       <c r="I334" s="9"/>
@@ -10076,17 +10103,19 @@
       <c r="K334" s="20"/>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A335" s="48" t="s">
-        <v>116</v>
+      <c r="A335" s="40">
+        <v>44957</v>
       </c>
       <c r="B335" s="20"/>
-      <c r="C335" s="13"/>
+      <c r="C335" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D335" s="39"/>
       <c r="E335" s="9"/>
       <c r="F335" s="20"/>
-      <c r="G335" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G335" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H335" s="39"/>
       <c r="I335" s="9"/>
@@ -10095,7 +10124,7 @@
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
-        <v>43831</v>
+        <v>44985</v>
       </c>
       <c r="B336" s="20"/>
       <c r="C336" s="13">
@@ -10115,7 +10144,7 @@
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
-        <v>43862</v>
+        <v>45016</v>
       </c>
       <c r="B337" s="20"/>
       <c r="C337" s="13">
@@ -10135,7 +10164,7 @@
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
-        <v>43891</v>
+        <v>45046</v>
       </c>
       <c r="B338" s="20"/>
       <c r="C338" s="13">
@@ -10155,7 +10184,7 @@
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
-        <v>43922</v>
+        <v>45077</v>
       </c>
       <c r="B339" s="20"/>
       <c r="C339" s="13">
@@ -10175,7 +10204,7 @@
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
-        <v>43952</v>
+        <v>45107</v>
       </c>
       <c r="B340" s="20"/>
       <c r="C340" s="13">
@@ -10195,7 +10224,7 @@
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
-        <v>43983</v>
+        <v>45138</v>
       </c>
       <c r="B341" s="20"/>
       <c r="C341" s="13">
@@ -10215,9 +10244,11 @@
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
-        <v>44013</v>
-      </c>
-      <c r="B342" s="20"/>
+        <v>45169</v>
+      </c>
+      <c r="B342" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="C342" s="13">
         <v>1.25</v>
       </c>
@@ -10228,16 +10259,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H342" s="39"/>
+      <c r="H342" s="39">
+        <v>13</v>
+      </c>
       <c r="I342" s="9"/>
       <c r="J342" s="11"/>
-      <c r="K342" s="20"/>
+      <c r="K342" s="20" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
-        <v>44044</v>
-      </c>
-      <c r="B343" s="20"/>
+        <v>45199</v>
+      </c>
+      <c r="B343" s="20" t="s">
+        <v>118</v>
+      </c>
       <c r="C343" s="13">
         <v>1.25</v>
       </c>
@@ -10248,14 +10285,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H343" s="39"/>
+      <c r="H343" s="39">
+        <v>22</v>
+      </c>
       <c r="I343" s="9"/>
       <c r="J343" s="11"/>
-      <c r="K343" s="20"/>
+      <c r="K343" s="20" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
-        <v>44075</v>
+        <v>45230</v>
       </c>
       <c r="B344" s="20"/>
       <c r="C344" s="13">
@@ -10275,7 +10316,7 @@
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
-        <v>44105</v>
+        <v>45260</v>
       </c>
       <c r="B345" s="20"/>
       <c r="C345" s="13">
@@ -10295,13 +10336,17 @@
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
-        <v>44136</v>
-      </c>
-      <c r="B346" s="20"/>
+        <v>45291</v>
+      </c>
+      <c r="B346" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C346" s="13">
         <v>1.25</v>
       </c>
-      <c r="D346" s="39"/>
+      <c r="D346" s="39">
+        <v>5</v>
+      </c>
       <c r="E346" s="9"/>
       <c r="F346" s="20"/>
       <c r="G346" s="13">
@@ -10314,23 +10359,17 @@
       <c r="K346" s="20"/>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A347" s="40">
-        <v>44166</v>
-      </c>
-      <c r="B347" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C347" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D347" s="39">
-        <v>5</v>
-      </c>
+      <c r="A347" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="B347" s="20"/>
+      <c r="C347" s="13"/>
+      <c r="D347" s="39"/>
       <c r="E347" s="9"/>
       <c r="F347" s="20"/>
-      <c r="G347" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G347" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H347" s="39"/>
       <c r="I347" s="9"/>
@@ -10338,15 +10377,19 @@
       <c r="K347" s="20"/>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A348" s="40"/>
+      <c r="A348" s="40">
+        <v>45322</v>
+      </c>
       <c r="B348" s="20"/>
-      <c r="C348" s="13"/>
+      <c r="C348" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D348" s="39"/>
       <c r="E348" s="9"/>
       <c r="F348" s="20"/>
-      <c r="G348" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G348" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H348" s="39"/>
       <c r="I348" s="9"/>
@@ -10354,15 +10397,19 @@
       <c r="K348" s="20"/>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A349" s="40"/>
+      <c r="A349" s="40">
+        <v>45351</v>
+      </c>
       <c r="B349" s="20"/>
-      <c r="C349" s="13"/>
+      <c r="C349" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D349" s="39"/>
       <c r="E349" s="9"/>
       <c r="F349" s="20"/>
-      <c r="G349" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G349" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H349" s="39"/>
       <c r="I349" s="9"/>
@@ -10370,15 +10417,19 @@
       <c r="K349" s="20"/>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A350" s="40"/>
+      <c r="A350" s="40">
+        <v>45382</v>
+      </c>
       <c r="B350" s="20"/>
-      <c r="C350" s="13"/>
+      <c r="C350" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D350" s="39"/>
       <c r="E350" s="9"/>
       <c r="F350" s="20"/>
-      <c r="G350" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G350" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H350" s="39"/>
       <c r="I350" s="9"/>
@@ -10386,15 +10437,19 @@
       <c r="K350" s="20"/>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A351" s="40"/>
+      <c r="A351" s="40">
+        <v>45412</v>
+      </c>
       <c r="B351" s="20"/>
-      <c r="C351" s="13"/>
+      <c r="C351" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D351" s="39"/>
       <c r="E351" s="9"/>
       <c r="F351" s="20"/>
-      <c r="G351" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G351" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H351" s="39"/>
       <c r="I351" s="9"/>
@@ -10402,15 +10457,19 @@
       <c r="K351" s="20"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A352" s="40"/>
+      <c r="A352" s="40">
+        <v>45443</v>
+      </c>
       <c r="B352" s="20"/>
-      <c r="C352" s="13"/>
+      <c r="C352" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D352" s="39"/>
       <c r="E352" s="9"/>
       <c r="F352" s="20"/>
-      <c r="G352" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G352" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H352" s="39"/>
       <c r="I352" s="9"/>
@@ -10418,15 +10477,19 @@
       <c r="K352" s="20"/>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A353" s="40"/>
+      <c r="A353" s="40">
+        <v>45473</v>
+      </c>
       <c r="B353" s="20"/>
-      <c r="C353" s="13"/>
+      <c r="C353" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D353" s="39"/>
       <c r="E353" s="9"/>
       <c r="F353" s="20"/>
-      <c r="G353" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G353" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H353" s="39"/>
       <c r="I353" s="9"/>
@@ -10434,15 +10497,19 @@
       <c r="K353" s="20"/>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A354" s="40"/>
+      <c r="A354" s="40">
+        <v>45504</v>
+      </c>
       <c r="B354" s="20"/>
-      <c r="C354" s="13"/>
+      <c r="C354" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D354" s="39"/>
       <c r="E354" s="9"/>
       <c r="F354" s="20"/>
-      <c r="G354" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G354" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H354" s="39"/>
       <c r="I354" s="9"/>
@@ -10450,15 +10517,19 @@
       <c r="K354" s="20"/>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A355" s="40"/>
+      <c r="A355" s="40">
+        <v>45535</v>
+      </c>
       <c r="B355" s="20"/>
-      <c r="C355" s="13"/>
+      <c r="C355" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D355" s="39"/>
       <c r="E355" s="9"/>
       <c r="F355" s="20"/>
-      <c r="G355" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G355" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H355" s="39"/>
       <c r="I355" s="9"/>
@@ -10466,7 +10537,9 @@
       <c r="K355" s="20"/>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A356" s="40"/>
+      <c r="A356" s="40">
+        <v>45565</v>
+      </c>
       <c r="B356" s="20"/>
       <c r="C356" s="13"/>
       <c r="D356" s="39"/>
@@ -10482,7 +10555,9 @@
       <c r="K356" s="20"/>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A357" s="40"/>
+      <c r="A357" s="40">
+        <v>45596</v>
+      </c>
       <c r="B357" s="20"/>
       <c r="C357" s="13"/>
       <c r="D357" s="39"/>
@@ -10498,7 +10573,9 @@
       <c r="K357" s="20"/>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A358" s="40"/>
+      <c r="A358" s="40">
+        <v>45626</v>
+      </c>
       <c r="B358" s="20"/>
       <c r="C358" s="13"/>
       <c r="D358" s="39"/>
@@ -10514,7 +10591,9 @@
       <c r="K358" s="20"/>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A359" s="40"/>
+      <c r="A359" s="40">
+        <v>45657</v>
+      </c>
       <c r="B359" s="20"/>
       <c r="C359" s="13"/>
       <c r="D359" s="39"/>
@@ -10530,7 +10609,9 @@
       <c r="K359" s="20"/>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A360" s="40"/>
+      <c r="A360" s="40">
+        <v>45688</v>
+      </c>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
       <c r="D360" s="39"/>
@@ -12799,7 +12880,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
